--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb1-Tgfbr2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H2">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I2">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J2">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.544241</v>
+        <v>23.0716105</v>
       </c>
       <c r="N2">
-        <v>89.088482</v>
+        <v>46.143221</v>
       </c>
       <c r="O2">
-        <v>0.2677188803968526</v>
+        <v>0.1676314597340788</v>
       </c>
       <c r="P2">
-        <v>0.2025351964154738</v>
+        <v>0.1219100312399993</v>
       </c>
       <c r="Q2">
-        <v>2094.840084925144</v>
+        <v>1511.166366381222</v>
       </c>
       <c r="R2">
-        <v>8379.360339700575</v>
+        <v>6044.665465524889</v>
       </c>
       <c r="S2">
-        <v>0.03134709741622019</v>
+        <v>0.02487002836810638</v>
       </c>
       <c r="T2">
-        <v>0.01663558512030842</v>
+        <v>0.01286346393505626</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H3">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I3">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J3">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>61.099948</v>
       </c>
       <c r="O3">
-        <v>0.1224072166131488</v>
+        <v>0.1479780164301391</v>
       </c>
       <c r="P3">
-        <v>0.1389056103700951</v>
+        <v>0.1614255877248434</v>
       </c>
       <c r="Q3">
-        <v>957.8089661260727</v>
+        <v>1333.994238001455</v>
       </c>
       <c r="R3">
-        <v>5746.853796756437</v>
+        <v>8003.965428008732</v>
       </c>
       <c r="S3">
-        <v>0.01433261239525882</v>
+        <v>0.02195421713986004</v>
       </c>
       <c r="T3">
-        <v>0.01140925698790578</v>
+        <v>0.01703298903931767</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H4">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I4">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J4">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.30234</v>
+        <v>24.87274833333333</v>
       </c>
       <c r="N4">
-        <v>75.90701999999999</v>
+        <v>74.618245</v>
       </c>
       <c r="O4">
-        <v>0.1520716030658261</v>
+        <v>0.1807179915210099</v>
       </c>
       <c r="P4">
-        <v>0.1725682474308328</v>
+        <v>0.1971408233296918</v>
       </c>
       <c r="Q4">
-        <v>1189.92612478019</v>
+        <v>1629.139011374951</v>
       </c>
       <c r="R4">
-        <v>7139.55674868114</v>
+        <v>9774.834068249706</v>
       </c>
       <c r="S4">
-        <v>0.01780600362768163</v>
+        <v>0.02681156378930594</v>
       </c>
       <c r="T4">
-        <v>0.01417419697912188</v>
+        <v>0.02080151932728519</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H5">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I5">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J5">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.742243</v>
+        <v>11.324958</v>
       </c>
       <c r="N5">
-        <v>29.484486</v>
+        <v>22.649916</v>
       </c>
       <c r="O5">
-        <v>0.0886035254366179</v>
+        <v>0.08228377646056106</v>
       </c>
       <c r="P5">
-        <v>0.06703050752643072</v>
+        <v>0.05984090202856364</v>
       </c>
       <c r="Q5">
-        <v>693.3026780747507</v>
+        <v>741.7729087564109</v>
       </c>
       <c r="R5">
-        <v>2773.210712299003</v>
+        <v>2967.091635025643</v>
       </c>
       <c r="S5">
-        <v>0.01037455161610207</v>
+        <v>0.01220773152041611</v>
       </c>
       <c r="T5">
-        <v>0.005505668808921248</v>
+        <v>0.006314175111400516</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H6">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I6">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J6">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.61478433333334</v>
+        <v>32.04211366666667</v>
       </c>
       <c r="N6">
-        <v>73.84435300000001</v>
+        <v>96.126341</v>
       </c>
       <c r="O6">
-        <v>0.1479392701500961</v>
+        <v>0.2328084676580601</v>
       </c>
       <c r="P6">
-        <v>0.1678789468994273</v>
+        <v>0.2539650457928984</v>
       </c>
       <c r="Q6">
-        <v>1157.591548215046</v>
+        <v>2098.724945136828</v>
       </c>
       <c r="R6">
-        <v>6945.549289290273</v>
+        <v>12592.34967082097</v>
       </c>
       <c r="S6">
-        <v>0.01732215040719294</v>
+        <v>0.03453977674701508</v>
       </c>
       <c r="T6">
-        <v>0.01378903301984203</v>
+        <v>0.0267973863519935</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H7">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I7">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J7">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.81412633333333</v>
+        <v>25.95485933333333</v>
       </c>
       <c r="N7">
-        <v>110.442379</v>
+        <v>77.86457799999999</v>
       </c>
       <c r="O7">
-        <v>0.2212595043374583</v>
+        <v>0.1885802881961511</v>
       </c>
       <c r="P7">
-        <v>0.2510814913577403</v>
+        <v>0.2057176098840036</v>
       </c>
       <c r="Q7">
-        <v>1731.305906291342</v>
+        <v>1700.0161505279</v>
       </c>
       <c r="R7">
-        <v>10387.83543774806</v>
+        <v>10200.0969031674</v>
       </c>
       <c r="S7">
-        <v>0.02590718751867468</v>
+        <v>0.02797802467713342</v>
       </c>
       <c r="T7">
-        <v>0.02062302056896495</v>
+        <v>0.0217065078946564</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>36.993797</v>
       </c>
       <c r="I8">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J8">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.544241</v>
+        <v>23.0716105</v>
       </c>
       <c r="N8">
-        <v>89.088482</v>
+        <v>46.143221</v>
       </c>
       <c r="O8">
-        <v>0.2677188803968526</v>
+        <v>0.1676314597340788</v>
       </c>
       <c r="P8">
-        <v>0.2025351964154738</v>
+        <v>0.1219100312399993</v>
       </c>
       <c r="Q8">
-        <v>549.2868696910257</v>
+        <v>284.5021584333562</v>
       </c>
       <c r="R8">
-        <v>3295.721218146154</v>
+        <v>1707.012950600137</v>
       </c>
       <c r="S8">
-        <v>0.008219505220261483</v>
+        <v>0.004682195758478194</v>
       </c>
       <c r="T8">
-        <v>0.006543011475173778</v>
+        <v>0.003632640987653417</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>36.993797</v>
       </c>
       <c r="I9">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J9">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>61.099948</v>
       </c>
       <c r="O9">
-        <v>0.1224072166131488</v>
+        <v>0.1479780164301391</v>
       </c>
       <c r="P9">
-        <v>0.1389056103700951</v>
+        <v>0.1614255877248434</v>
       </c>
       <c r="Q9">
         <v>251.1465636691729</v>
@@ -1013,10 +1013,10 @@
         <v>2260.319073022556</v>
       </c>
       <c r="S9">
-        <v>0.003758146435014312</v>
+        <v>0.004133245883417895</v>
       </c>
       <c r="T9">
-        <v>0.004487422525579918</v>
+        <v>0.004810114479184112</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>36.993797</v>
       </c>
       <c r="I10">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J10">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.30234</v>
+        <v>24.87274833333333</v>
       </c>
       <c r="N10">
-        <v>75.90701999999999</v>
+        <v>74.618245</v>
       </c>
       <c r="O10">
-        <v>0.1520716030658261</v>
+        <v>0.1807179915210099</v>
       </c>
       <c r="P10">
-        <v>0.1725682474308328</v>
+        <v>0.1971408233296918</v>
       </c>
       <c r="Q10">
-        <v>312.0098765283266</v>
+        <v>306.7124675584739</v>
       </c>
       <c r="R10">
-        <v>2808.088888754939</v>
+        <v>2760.412208026265</v>
       </c>
       <c r="S10">
-        <v>0.004668902444983424</v>
+        <v>0.005047722036917575</v>
       </c>
       <c r="T10">
-        <v>0.005574912623455021</v>
+        <v>0.005874347072861789</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>36.993797</v>
       </c>
       <c r="I11">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J11">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.742243</v>
+        <v>11.324958</v>
       </c>
       <c r="N11">
-        <v>29.484486</v>
+        <v>22.649916</v>
       </c>
       <c r="O11">
-        <v>0.0886035254366179</v>
+        <v>0.08228377646056106</v>
       </c>
       <c r="P11">
-        <v>0.06703050752643072</v>
+        <v>0.05984090202856364</v>
       </c>
       <c r="Q11">
-        <v>181.790514955557</v>
+        <v>139.651065761842</v>
       </c>
       <c r="R11">
-        <v>1090.743089733342</v>
+        <v>837.9063945710519</v>
       </c>
       <c r="S11">
-        <v>0.002720305489027489</v>
+        <v>0.002298308144225289</v>
       </c>
       <c r="T11">
-        <v>0.002165457597959752</v>
+        <v>0.001783122448875143</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>36.993797</v>
       </c>
       <c r="I12">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J12">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.61478433333334</v>
+        <v>32.04211366666667</v>
       </c>
       <c r="N12">
-        <v>73.84435300000001</v>
+        <v>96.126341</v>
       </c>
       <c r="O12">
-        <v>0.1479392701500961</v>
+        <v>0.2328084676580601</v>
       </c>
       <c r="P12">
-        <v>0.1678789468994273</v>
+        <v>0.2539650457928984</v>
       </c>
       <c r="Q12">
-        <v>303.5314449420379</v>
+        <v>395.1198161451974</v>
       </c>
       <c r="R12">
-        <v>2731.783004478341</v>
+        <v>3556.078345306777</v>
       </c>
       <c r="S12">
-        <v>0.004542031557422741</v>
+        <v>0.006502686438068242</v>
       </c>
       <c r="T12">
-        <v>0.005423422177692771</v>
+        <v>0.007567579348432333</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>36.993797</v>
       </c>
       <c r="I13">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J13">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.81412633333333</v>
+        <v>25.95485933333333</v>
       </c>
       <c r="N13">
-        <v>110.442379</v>
+        <v>77.86457799999999</v>
       </c>
       <c r="O13">
-        <v>0.2212595043374583</v>
+        <v>0.1885802881961511</v>
       </c>
       <c r="P13">
-        <v>0.2510814913577403</v>
+        <v>0.2057176098840036</v>
       </c>
       <c r="Q13">
-        <v>453.9647721025626</v>
+        <v>320.0562657802962</v>
       </c>
       <c r="R13">
-        <v>4085.682948923063</v>
+        <v>2880.506392022666</v>
       </c>
       <c r="S13">
-        <v>0.006793109429706055</v>
+        <v>0.005267327665852867</v>
       </c>
       <c r="T13">
-        <v>0.008111326368121206</v>
+        <v>0.006129915757921115</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H14">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I14">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J14">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>44.544241</v>
+        <v>23.0716105</v>
       </c>
       <c r="N14">
-        <v>89.088482</v>
+        <v>46.143221</v>
       </c>
       <c r="O14">
-        <v>0.2677188803968526</v>
+        <v>0.1676314597340788</v>
       </c>
       <c r="P14">
-        <v>0.2025351964154738</v>
+        <v>0.1219100312399993</v>
       </c>
       <c r="Q14">
-        <v>5748.40804964397</v>
+        <v>2862.767774935804</v>
       </c>
       <c r="R14">
-        <v>34490.44829786383</v>
+        <v>17176.60664961482</v>
       </c>
       <c r="S14">
-        <v>0.08601893214527298</v>
+        <v>0.04711401560931335</v>
       </c>
       <c r="T14">
-        <v>0.0684740559226521</v>
+        <v>0.03655300056291561</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H15">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I15">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J15">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>61.099948</v>
       </c>
       <c r="O15">
-        <v>0.1224072166131488</v>
+        <v>0.1479780164301391</v>
       </c>
       <c r="P15">
-        <v>0.1389056103700951</v>
+        <v>0.1614255877248434</v>
       </c>
       <c r="Q15">
-        <v>2628.304093721326</v>
+        <v>2527.131228870409</v>
       </c>
       <c r="R15">
-        <v>23654.73684349194</v>
+        <v>22744.18105983369</v>
       </c>
       <c r="S15">
-        <v>0.03932983002293314</v>
+        <v>0.04159027539928684</v>
       </c>
       <c r="T15">
-        <v>0.04696186490441194</v>
+        <v>0.04840118191224914</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H16">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I16">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J16">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.30234</v>
+        <v>24.87274833333333</v>
       </c>
       <c r="N16">
-        <v>75.90701999999999</v>
+        <v>74.618245</v>
       </c>
       <c r="O16">
-        <v>0.1520716030658261</v>
+        <v>0.1807179915210099</v>
       </c>
       <c r="P16">
-        <v>0.1725682474308328</v>
+        <v>0.1971408233296918</v>
       </c>
       <c r="Q16">
-        <v>3265.252065487626</v>
+        <v>3086.256262984108</v>
       </c>
       <c r="R16">
-        <v>29387.26858938864</v>
+        <v>27776.30636685697</v>
       </c>
       <c r="S16">
-        <v>0.04886109222461836</v>
+        <v>0.05079207856873231</v>
       </c>
       <c r="T16">
-        <v>0.05834268825460368</v>
+        <v>0.05910989073538614</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H17">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I17">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J17">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.742243</v>
+        <v>11.324958</v>
       </c>
       <c r="N17">
-        <v>29.484486</v>
+        <v>22.649916</v>
       </c>
       <c r="O17">
-        <v>0.0886035254366179</v>
+        <v>0.08228377646056106</v>
       </c>
       <c r="P17">
-        <v>0.06703050752643072</v>
+        <v>0.05984090202856364</v>
       </c>
       <c r="Q17">
-        <v>1902.477771054792</v>
+        <v>1405.221573712916</v>
       </c>
       <c r="R17">
-        <v>11414.86662632875</v>
+        <v>8431.329442277494</v>
       </c>
       <c r="S17">
-        <v>0.02846859598047985</v>
+        <v>0.02312644138937843</v>
       </c>
       <c r="T17">
-        <v>0.02266199061753744</v>
+        <v>0.0179424490608922</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H18">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I18">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J18">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.61478433333334</v>
+        <v>32.04211366666667</v>
       </c>
       <c r="N18">
-        <v>73.84435300000001</v>
+        <v>96.126341</v>
       </c>
       <c r="O18">
-        <v>0.1479392701500961</v>
+        <v>0.2328084676580601</v>
       </c>
       <c r="P18">
-        <v>0.1678789468994273</v>
+        <v>0.2539650457928984</v>
       </c>
       <c r="Q18">
-        <v>3176.523411903766</v>
+        <v>3975.844271719282</v>
       </c>
       <c r="R18">
-        <v>28588.7107071339</v>
+        <v>35782.59844547354</v>
       </c>
       <c r="S18">
-        <v>0.04753336044808865</v>
+        <v>0.06543247786914251</v>
       </c>
       <c r="T18">
-        <v>0.05675730738002768</v>
+        <v>0.07614783104725217</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>129.0494106666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H19">
-        <v>387.148232</v>
+        <v>372.245506</v>
       </c>
       <c r="I19">
-        <v>0.3213031969122349</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J19">
-        <v>0.3380847237148192</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>36.81412633333333</v>
+        <v>25.95485933333333</v>
       </c>
       <c r="N19">
-        <v>110.442379</v>
+        <v>77.86457799999999</v>
       </c>
       <c r="O19">
-        <v>0.2212595043374583</v>
+        <v>0.1885802881961511</v>
       </c>
       <c r="P19">
-        <v>0.2510814913577403</v>
+        <v>0.2057176098840036</v>
       </c>
       <c r="Q19">
-        <v>4750.841307524881</v>
+        <v>3220.526581898496</v>
       </c>
       <c r="R19">
-        <v>42757.57176772393</v>
+        <v>28984.73923708647</v>
       </c>
       <c r="S19">
-        <v>0.07109138609084185</v>
+        <v>0.05300183304360997</v>
       </c>
       <c r="T19">
-        <v>0.08488681663558639</v>
+        <v>0.06168151901370705</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H20">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I20">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J20">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>44.544241</v>
+        <v>23.0716105</v>
       </c>
       <c r="N20">
-        <v>89.088482</v>
+        <v>46.143221</v>
       </c>
       <c r="O20">
-        <v>0.2677188803968526</v>
+        <v>0.1676314597340788</v>
       </c>
       <c r="P20">
-        <v>0.2025351964154738</v>
+        <v>0.1219100312399993</v>
       </c>
       <c r="Q20">
-        <v>569.3163361374791</v>
+        <v>402.6306806843434</v>
       </c>
       <c r="R20">
-        <v>2277.265344549916</v>
+        <v>1610.522722737374</v>
       </c>
       <c r="S20">
-        <v>0.008519225299331062</v>
+        <v>0.006626296530453294</v>
       </c>
       <c r="T20">
-        <v>0.004521066041437517</v>
+        <v>0.003427303145009012</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H21">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I21">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J21">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>61.099948</v>
       </c>
       <c r="O21">
-        <v>0.1224072166131488</v>
+        <v>0.1479780164301391</v>
       </c>
       <c r="P21">
-        <v>0.1389056103700951</v>
+        <v>0.1614255877248434</v>
       </c>
       <c r="Q21">
-        <v>260.3044954307373</v>
+        <v>355.4254647433186</v>
       </c>
       <c r="R21">
-        <v>1561.826972584424</v>
+        <v>2132.552788459912</v>
       </c>
       <c r="S21">
-        <v>0.003895185334129667</v>
+        <v>0.00584941644253337</v>
       </c>
       <c r="T21">
-        <v>0.003100702737716399</v>
+        <v>0.004538219036340942</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H22">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I22">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J22">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>25.30234</v>
+        <v>24.87274833333333</v>
       </c>
       <c r="N22">
-        <v>75.90701999999999</v>
+        <v>74.618245</v>
       </c>
       <c r="O22">
-        <v>0.1520716030658261</v>
+        <v>0.1807179915210099</v>
       </c>
       <c r="P22">
-        <v>0.1725682474308328</v>
+        <v>0.1971408233296918</v>
       </c>
       <c r="Q22">
-        <v>323.38715805046</v>
+        <v>434.0629620086717</v>
       </c>
       <c r="R22">
-        <v>1940.32294830276</v>
+        <v>2604.37777205203</v>
       </c>
       <c r="S22">
-        <v>0.004839151598974967</v>
+        <v>0.007143593464530992</v>
       </c>
       <c r="T22">
-        <v>0.003852132651993312</v>
+        <v>0.005542295059193051</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H23">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I23">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J23">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>14.742243</v>
+        <v>11.324958</v>
       </c>
       <c r="N23">
-        <v>29.484486</v>
+        <v>22.649916</v>
       </c>
       <c r="O23">
-        <v>0.0886035254366179</v>
+        <v>0.08228377646056106</v>
       </c>
       <c r="P23">
-        <v>0.06703050752643072</v>
+        <v>0.05984090202856364</v>
       </c>
       <c r="Q23">
-        <v>188.419413661317</v>
+        <v>197.635771818426</v>
       </c>
       <c r="R23">
-        <v>753.6776546452681</v>
+        <v>790.5430872737038</v>
       </c>
       <c r="S23">
-        <v>0.002819500045684609</v>
+        <v>0.003252591747027338</v>
       </c>
       <c r="T23">
-        <v>0.00149627993890209</v>
+        <v>0.001682330072731376</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H24">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I24">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J24">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.61478433333334</v>
+        <v>32.04211366666667</v>
       </c>
       <c r="N24">
-        <v>73.84435300000001</v>
+        <v>96.126341</v>
       </c>
       <c r="O24">
-        <v>0.1479392701500961</v>
+        <v>0.2328084676580601</v>
       </c>
       <c r="P24">
-        <v>0.1678789468994273</v>
+        <v>0.2539650457928984</v>
       </c>
       <c r="Q24">
-        <v>314.5995647668024</v>
+        <v>559.1780442104423</v>
       </c>
       <c r="R24">
-        <v>1887.597388600814</v>
+        <v>3355.068265262654</v>
       </c>
       <c r="S24">
-        <v>0.0047076544290004</v>
+        <v>0.009202675583389525</v>
       </c>
       <c r="T24">
-        <v>0.003747456340093714</v>
+        <v>0.007139816070219909</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.780919</v>
+        <v>17.451347</v>
       </c>
       <c r="H25">
-        <v>25.561838</v>
+        <v>34.902694</v>
       </c>
       <c r="I25">
-        <v>0.03182153341857176</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J25">
-        <v>0.02232237221704003</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>36.81412633333333</v>
+        <v>25.95485933333333</v>
       </c>
       <c r="N25">
-        <v>110.442379</v>
+        <v>77.86457799999999</v>
       </c>
       <c r="O25">
-        <v>0.2212595043374583</v>
+        <v>0.1885802881961511</v>
       </c>
       <c r="P25">
-        <v>0.2510814913577403</v>
+        <v>0.2057176098840036</v>
       </c>
       <c r="Q25">
-        <v>470.5183667221004</v>
+        <v>452.9472565621886</v>
       </c>
       <c r="R25">
-        <v>2823.110200332602</v>
+        <v>2717.683539373132</v>
       </c>
       <c r="S25">
-        <v>0.007040816711451054</v>
+        <v>0.007454381840785234</v>
       </c>
       <c r="T25">
-        <v>0.005604734506896998</v>
+        <v>0.005783417526578813</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H26">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I26">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J26">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>44.544241</v>
+        <v>23.0716105</v>
       </c>
       <c r="N26">
-        <v>89.088482</v>
+        <v>46.143221</v>
       </c>
       <c r="O26">
-        <v>0.2677188803968526</v>
+        <v>0.1676314597340788</v>
       </c>
       <c r="P26">
-        <v>0.2025351964154738</v>
+        <v>0.1219100312399993</v>
       </c>
       <c r="Q26">
-        <v>1862.407411318685</v>
+        <v>3193.976017069455</v>
       </c>
       <c r="R26">
-        <v>11174.44446791211</v>
+        <v>19163.85610241673</v>
       </c>
       <c r="S26">
-        <v>0.02786898483154787</v>
+        <v>0.0525648769842525</v>
       </c>
       <c r="T26">
-        <v>0.02218467932896583</v>
+        <v>0.04078200410527424</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H27">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I27">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J27">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>61.099948</v>
       </c>
       <c r="O27">
-        <v>0.1224072166131488</v>
+        <v>0.1479780164301391</v>
       </c>
       <c r="P27">
-        <v>0.1389056103700951</v>
+        <v>0.1614255877248434</v>
       </c>
       <c r="Q27">
-        <v>851.5354131217266</v>
+        <v>2819.507962772268</v>
       </c>
       <c r="R27">
-        <v>7663.81871809554</v>
+        <v>25375.57166495042</v>
       </c>
       <c r="S27">
-        <v>0.01274233949434948</v>
+        <v>0.04640206702466976</v>
       </c>
       <c r="T27">
-        <v>0.01521501683457225</v>
+        <v>0.05400096213846975</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H28">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I28">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J28">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>25.30234</v>
+        <v>24.87274833333333</v>
       </c>
       <c r="N28">
-        <v>75.90701999999999</v>
+        <v>74.618245</v>
       </c>
       <c r="O28">
-        <v>0.1520716030658261</v>
+        <v>0.1807179915210099</v>
       </c>
       <c r="P28">
-        <v>0.1725682474308328</v>
+        <v>0.1971408233296918</v>
       </c>
       <c r="Q28">
-        <v>1057.8980465669</v>
+        <v>3443.321031068505</v>
       </c>
       <c r="R28">
-        <v>9521.082419102098</v>
+        <v>30989.88927961654</v>
       </c>
       <c r="S28">
-        <v>0.01583034111329154</v>
+        <v>0.05666847385456416</v>
       </c>
       <c r="T28">
-        <v>0.01890225155612591</v>
+        <v>0.06594861624242397</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H29">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I29">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J29">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>14.742243</v>
+        <v>11.324958</v>
       </c>
       <c r="N29">
-        <v>29.484486</v>
+        <v>22.649916</v>
       </c>
       <c r="O29">
-        <v>0.0886035254366179</v>
+        <v>0.08228377646056106</v>
       </c>
       <c r="P29">
-        <v>0.06703050752643072</v>
+        <v>0.05984090202856364</v>
       </c>
       <c r="Q29">
-        <v>616.3773813692551</v>
+        <v>1567.798842925112</v>
       </c>
       <c r="R29">
-        <v>3698.264288215531</v>
+        <v>9406.793057550671</v>
       </c>
       <c r="S29">
-        <v>0.009223444766967582</v>
+        <v>0.02580205764664006</v>
       </c>
       <c r="T29">
-        <v>0.007342182203636408</v>
+        <v>0.02001830273825307</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H30">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I30">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J30">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>24.61478433333334</v>
+        <v>32.04211366666667</v>
       </c>
       <c r="N30">
-        <v>73.84435300000001</v>
+        <v>96.126341</v>
       </c>
       <c r="O30">
-        <v>0.1479392701500961</v>
+        <v>0.2328084676580601</v>
       </c>
       <c r="P30">
-        <v>0.1678789468994273</v>
+        <v>0.2539650457928984</v>
       </c>
       <c r="Q30">
-        <v>1029.151148190202</v>
+        <v>4435.830025283531</v>
       </c>
       <c r="R30">
-        <v>9262.360333711817</v>
+        <v>39922.47022755177</v>
       </c>
       <c r="S30">
-        <v>0.01540017375573846</v>
+        <v>0.07300269581110383</v>
       </c>
       <c r="T30">
-        <v>0.01838860933290968</v>
+        <v>0.08495776298943221</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>41.810285</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H31">
-        <v>125.430855</v>
+        <v>415.312492</v>
       </c>
       <c r="I31">
-        <v>0.1040979432987182</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J31">
-        <v>0.1095349337872956</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>36.81412633333333</v>
+        <v>25.95485933333333</v>
       </c>
       <c r="N31">
-        <v>110.442379</v>
+        <v>77.86457799999999</v>
       </c>
       <c r="O31">
-        <v>0.2212595043374583</v>
+        <v>0.1885802881961511</v>
       </c>
       <c r="P31">
-        <v>0.2510814913577403</v>
+        <v>0.2057176098840036</v>
       </c>
       <c r="Q31">
-        <v>1539.209114022672</v>
+        <v>3593.125769745375</v>
       </c>
       <c r="R31">
-        <v>13852.88202620405</v>
+        <v>32338.13192770837</v>
       </c>
       <c r="S31">
-        <v>0.02303265933682322</v>
+        <v>0.05913388612382497</v>
       </c>
       <c r="T31">
-        <v>0.02750219453108551</v>
+        <v>0.06881776934582538</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H32">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I32">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J32">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>44.544241</v>
+        <v>23.0716105</v>
       </c>
       <c r="N32">
-        <v>89.088482</v>
+        <v>46.143221</v>
       </c>
       <c r="O32">
-        <v>0.2677188803968526</v>
+        <v>0.1676314597340788</v>
       </c>
       <c r="P32">
-        <v>0.2025351964154738</v>
+        <v>0.1219100312399993</v>
       </c>
       <c r="Q32">
-        <v>7066.655826435775</v>
+        <v>1930.672119024891</v>
       </c>
       <c r="R32">
-        <v>42399.93495861465</v>
+        <v>11584.03271414935</v>
       </c>
       <c r="S32">
-        <v>0.105745135484219</v>
+        <v>0.03177404648347509</v>
       </c>
       <c r="T32">
-        <v>0.08417679852693614</v>
+        <v>0.0246516185040908</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H33">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I33">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J33">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>61.099948</v>
       </c>
       <c r="O33">
-        <v>0.1224072166131488</v>
+        <v>0.1479780164301391</v>
       </c>
       <c r="P33">
-        <v>0.1389056103700951</v>
+        <v>0.1614255877248434</v>
       </c>
       <c r="Q33">
-        <v>3231.037232767627</v>
+        <v>1704.316307950134</v>
       </c>
       <c r="R33">
-        <v>29079.33509490865</v>
+        <v>15338.84677155121</v>
       </c>
       <c r="S33">
-        <v>0.0483491029314634</v>
+        <v>0.02804879454037118</v>
       </c>
       <c r="T33">
-        <v>0.05773134637990885</v>
+        <v>0.03264212111928177</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H34">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I34">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J34">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>25.30234</v>
+        <v>24.87274833333333</v>
       </c>
       <c r="N34">
-        <v>75.90701999999999</v>
+        <v>74.618245</v>
       </c>
       <c r="O34">
-        <v>0.1520716030658261</v>
+        <v>0.1807179915210099</v>
       </c>
       <c r="P34">
-        <v>0.1725682474308328</v>
+        <v>0.1971408233296918</v>
       </c>
       <c r="Q34">
-        <v>4014.052644503673</v>
+        <v>2081.394436278712</v>
       </c>
       <c r="R34">
-        <v>36126.47380053306</v>
+        <v>18732.5499265084</v>
       </c>
       <c r="S34">
-        <v>0.06006611205627624</v>
+        <v>0.0342545598069589</v>
       </c>
       <c r="T34">
-        <v>0.07172206536553302</v>
+        <v>0.03986415489254166</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H35">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I35">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J35">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>14.742243</v>
+        <v>11.324958</v>
       </c>
       <c r="N35">
-        <v>29.484486</v>
+        <v>22.649916</v>
       </c>
       <c r="O35">
-        <v>0.0886035254366179</v>
+        <v>0.08228377646056106</v>
       </c>
       <c r="P35">
-        <v>0.06703050752643072</v>
+        <v>0.05984090202856364</v>
       </c>
       <c r="Q35">
-        <v>2338.761533520843</v>
+        <v>947.6919983426338</v>
       </c>
       <c r="R35">
-        <v>14032.56920112506</v>
+        <v>5686.151990055803</v>
       </c>
       <c r="S35">
-        <v>0.0349971275383563</v>
+        <v>0.01559664601287383</v>
       </c>
       <c r="T35">
-        <v>0.02785892835947379</v>
+        <v>0.01210052259641134</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H36">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I36">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J36">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>24.61478433333334</v>
+        <v>32.04211366666667</v>
       </c>
       <c r="N36">
-        <v>73.84435300000001</v>
+        <v>96.126341</v>
       </c>
       <c r="O36">
-        <v>0.1479392701500961</v>
+        <v>0.2328084676580601</v>
       </c>
       <c r="P36">
-        <v>0.1678789468994273</v>
+        <v>0.2539650457928984</v>
       </c>
       <c r="Q36">
-        <v>3904.976383492763</v>
+        <v>2681.339280188514</v>
       </c>
       <c r="R36">
-        <v>35144.78745143487</v>
+        <v>24132.05352169663</v>
       </c>
       <c r="S36">
-        <v>0.05843389955265296</v>
+        <v>0.04412815520934089</v>
       </c>
       <c r="T36">
-        <v>0.0697731186488614</v>
+        <v>0.05135466998556825</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>158.6435343333333</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H37">
-        <v>475.930603</v>
+        <v>251.045169</v>
       </c>
       <c r="I37">
-        <v>0.3949857228129294</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J37">
-        <v>0.4156156560277984</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>36.81412633333333</v>
+        <v>25.95485933333333</v>
       </c>
       <c r="N37">
-        <v>110.442379</v>
+        <v>77.86457799999999</v>
       </c>
       <c r="O37">
-        <v>0.2212595043374583</v>
+        <v>0.1885802881961511</v>
       </c>
       <c r="P37">
-        <v>0.2510814913577403</v>
+        <v>0.2057176098840036</v>
       </c>
       <c r="Q37">
-        <v>5840.323114913838</v>
+        <v>2171.947349235964</v>
       </c>
       <c r="R37">
-        <v>52562.90803422454</v>
+        <v>19547.52614312368</v>
       </c>
       <c r="S37">
-        <v>0.08739434524996148</v>
+        <v>0.03574483484494464</v>
       </c>
       <c r="T37">
-        <v>0.1043533987470852</v>
+        <v>0.0415984803453149</v>
       </c>
     </row>
   </sheetData>
